--- a/natmiOut/OldD0/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H2">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I2">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J2">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N2">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P2">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q2">
-        <v>25.07973552456638</v>
+        <v>241.509594762252</v>
       </c>
       <c r="R2">
-        <v>25.07973552456638</v>
+        <v>2173.586352860268</v>
       </c>
       <c r="S2">
-        <v>0.1181634828731372</v>
+        <v>0.3601293194769907</v>
       </c>
       <c r="T2">
-        <v>0.1181634828731372</v>
+        <v>0.3601293194769907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H3">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I3">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J3">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N3">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P3">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q3">
-        <v>108.6806580208342</v>
+        <v>244.966637710144</v>
       </c>
       <c r="R3">
-        <v>108.6806580208342</v>
+        <v>2204.699739391296</v>
       </c>
       <c r="S3">
-        <v>0.5120502590670023</v>
+        <v>0.3652843218091038</v>
       </c>
       <c r="T3">
-        <v>0.5120502590670023</v>
+        <v>0.3652843218091038</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.23166039785677</v>
+        <v>7.235148</v>
       </c>
       <c r="H4">
-        <v>3.23166039785677</v>
+        <v>21.705444</v>
       </c>
       <c r="I4">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="J4">
-        <v>0.9103890862344178</v>
+        <v>0.9254344869740032</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N4">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P4">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q4">
-        <v>59.46611731941645</v>
+        <v>134.137796545544</v>
       </c>
       <c r="R4">
-        <v>59.46611731941645</v>
+        <v>1207.240168909896</v>
       </c>
       <c r="S4">
-        <v>0.2801753442942784</v>
+        <v>0.2000208456879088</v>
       </c>
       <c r="T4">
-        <v>0.2801753442942784</v>
+        <v>0.2000208456879088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H5">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I5">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J5">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N5">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P5">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q5">
-        <v>1.244548146097041</v>
+        <v>10.068613333481</v>
       </c>
       <c r="R5">
-        <v>1.244548146097041</v>
+        <v>90.61752000132901</v>
       </c>
       <c r="S5">
-        <v>0.005863703921521911</v>
+        <v>0.01501390812830022</v>
       </c>
       <c r="T5">
-        <v>0.005863703921521911</v>
+        <v>0.01501390812830022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H6">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I6">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J6">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N6">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P6">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q6">
-        <v>5.393131491516163</v>
+        <v>10.21273857518756</v>
       </c>
       <c r="R6">
-        <v>5.393131491516163</v>
+        <v>91.91464717668802</v>
       </c>
       <c r="S6">
-        <v>0.02540980545851929</v>
+        <v>0.01522882184742734</v>
       </c>
       <c r="T6">
-        <v>0.02540980545851929</v>
+        <v>0.01522882184742734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.160366801038561</v>
+        <v>0.3016356666666667</v>
       </c>
       <c r="H7">
-        <v>0.160366801038561</v>
+        <v>0.9049070000000001</v>
       </c>
       <c r="I7">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="J7">
-        <v>0.04517683403759151</v>
+        <v>0.03858166390441884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N7">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P7">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q7">
-        <v>2.950926097006696</v>
+        <v>5.592248242359778</v>
       </c>
       <c r="R7">
-        <v>2.950926097006696</v>
+        <v>50.33023418123801</v>
       </c>
       <c r="S7">
-        <v>0.01390332465755031</v>
+        <v>0.00833893392869128</v>
       </c>
       <c r="T7">
-        <v>0.01390332465755031</v>
+        <v>0.00833893392869128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H8">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I8">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J8">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.76063460789358</v>
+        <v>33.380049</v>
       </c>
       <c r="N8">
-        <v>7.76063460789358</v>
+        <v>100.140147</v>
       </c>
       <c r="O8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="P8">
-        <v>0.1297944853028599</v>
+        <v>0.3891462059670435</v>
       </c>
       <c r="Q8">
-        <v>1.224086475448534</v>
+        <v>9.390664538290999</v>
       </c>
       <c r="R8">
-        <v>1.224086475448534</v>
+        <v>84.51598084461899</v>
       </c>
       <c r="S8">
-        <v>0.005767298508200775</v>
+        <v>0.01400297836175257</v>
       </c>
       <c r="T8">
-        <v>0.005767298508200775</v>
+        <v>0.01400297836175257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H9">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I9">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J9">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.6299748862569</v>
+        <v>33.85786133333334</v>
       </c>
       <c r="N9">
-        <v>33.6299748862569</v>
+        <v>101.573584</v>
       </c>
       <c r="O9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="P9">
-        <v>0.5624521062581735</v>
+        <v>0.3947165649764305</v>
       </c>
       <c r="Q9">
-        <v>5.304462780153277</v>
+        <v>9.525085411507556</v>
       </c>
       <c r="R9">
-        <v>5.304462780153277</v>
+        <v>85.72576870356801</v>
       </c>
       <c r="S9">
-        <v>0.0249920417326519</v>
+        <v>0.01420342131989938</v>
       </c>
       <c r="T9">
-        <v>0.0249920417326519</v>
+        <v>0.01420342131989937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.157730203429946</v>
+        <v>0.2813256666666666</v>
       </c>
       <c r="H10">
-        <v>0.157730203429946</v>
+        <v>0.843977</v>
       </c>
       <c r="I10">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="J10">
-        <v>0.04443407972799056</v>
+        <v>0.0359838491215779</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.4011034571746</v>
+        <v>18.53974466666667</v>
       </c>
       <c r="N10">
-        <v>18.4011034571746</v>
+        <v>55.61923400000001</v>
       </c>
       <c r="O10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="P10">
-        <v>0.3077534084389666</v>
+        <v>0.2161372290565261</v>
       </c>
       <c r="Q10">
-        <v>2.902409791635632</v>
+        <v>5.215706028179778</v>
       </c>
       <c r="R10">
-        <v>2.902409791635632</v>
+        <v>46.941354253618</v>
       </c>
       <c r="S10">
-        <v>0.01367473948713789</v>
+        <v>0.007777449439925957</v>
       </c>
       <c r="T10">
-        <v>0.01367473948713789</v>
+        <v>0.007777449439925957</v>
       </c>
     </row>
   </sheetData>
